--- a/data/enzymes.xlsx
+++ b/data/enzymes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="488">
   <si>
     <t>AA/CGTT</t>
   </si>
@@ -1366,9 +1366,6 @@
   </si>
   <si>
     <t>EaeI</t>
-  </si>
-  <si>
-    <t>Seq</t>
   </si>
   <si>
     <t>Name</t>
@@ -2362,6 +2359,12 @@
       </rPr>
       <t>BsrGI</t>
     </r>
+  </si>
+  <si>
+    <t>Restriction_spot</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -2716,25 +2719,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" t="s">
         <v>450</v>
-      </c>
-      <c r="C1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2745,6 +2751,9 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2756,7 +2765,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.399999999999999" customHeight="1">
@@ -2767,7 +2779,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.399999999999999" customHeight="1">
@@ -2778,6 +2793,9 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2789,6 +2807,9 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2800,6 +2821,9 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2811,7 +2835,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2822,6 +2849,9 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2833,7 +2863,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2844,6 +2877,9 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2855,6 +2891,9 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2866,6 +2905,9 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2877,6 +2919,9 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2888,6 +2933,9 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2900,10 +2948,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2911,10 +2962,13 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2922,10 +2976,13 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2933,10 +2990,13 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2944,10 +3004,13 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2955,10 +3018,13 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2966,10 +3032,13 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2977,10 +3046,13 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2988,10 +3060,13 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2999,10 +3074,13 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3010,10 +3088,13 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3021,10 +3102,13 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3032,10 +3116,13 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3043,10 +3130,13 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3054,10 +3144,13 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3065,10 +3158,13 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3076,10 +3172,13 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3087,10 +3186,13 @@
         <v>56</v>
       </c>
       <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3098,10 +3200,13 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3109,10 +3214,13 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3120,10 +3228,13 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3131,10 +3242,13 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3142,10 +3256,13 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3153,10 +3270,13 @@
         <v>68</v>
       </c>
       <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3164,10 +3284,13 @@
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3175,10 +3298,13 @@
         <v>71</v>
       </c>
       <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3186,10 +3312,13 @@
         <v>73</v>
       </c>
       <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3197,10 +3326,13 @@
         <v>75</v>
       </c>
       <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3208,10 +3340,13 @@
         <v>77</v>
       </c>
       <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3219,10 +3354,13 @@
         <v>79</v>
       </c>
       <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3230,10 +3368,13 @@
         <v>81</v>
       </c>
       <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3241,10 +3382,13 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3252,10 +3396,13 @@
         <v>85</v>
       </c>
       <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3263,10 +3410,13 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3274,10 +3424,13 @@
         <v>89</v>
       </c>
       <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3285,10 +3438,13 @@
         <v>91</v>
       </c>
       <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3296,10 +3452,13 @@
         <v>93</v>
       </c>
       <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3307,10 +3466,13 @@
         <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3318,10 +3480,13 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3329,10 +3494,13 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3340,10 +3508,13 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3351,10 +3522,13 @@
         <v>101</v>
       </c>
       <c r="C57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3362,10 +3536,13 @@
         <v>103</v>
       </c>
       <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3373,10 +3550,13 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3384,10 +3564,13 @@
         <v>107</v>
       </c>
       <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3395,10 +3578,13 @@
         <v>109</v>
       </c>
       <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3406,10 +3592,13 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3417,10 +3606,13 @@
         <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3428,10 +3620,13 @@
         <v>114</v>
       </c>
       <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3439,10 +3634,13 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3450,10 +3648,13 @@
         <v>118</v>
       </c>
       <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3461,10 +3662,13 @@
         <v>120</v>
       </c>
       <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3472,10 +3676,13 @@
         <v>122</v>
       </c>
       <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3483,10 +3690,13 @@
         <v>124</v>
       </c>
       <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3494,10 +3704,13 @@
         <v>126</v>
       </c>
       <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3505,10 +3718,13 @@
         <v>128</v>
       </c>
       <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3516,10 +3732,13 @@
         <v>130</v>
       </c>
       <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3527,10 +3746,13 @@
         <v>132</v>
       </c>
       <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3538,10 +3760,13 @@
         <v>134</v>
       </c>
       <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3549,10 +3774,13 @@
         <v>136</v>
       </c>
       <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3560,10 +3788,13 @@
         <v>138</v>
       </c>
       <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3571,10 +3802,13 @@
         <v>140</v>
       </c>
       <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3582,10 +3816,13 @@
         <v>142</v>
       </c>
       <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3593,10 +3830,13 @@
         <v>144</v>
       </c>
       <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3604,10 +3844,13 @@
         <v>146</v>
       </c>
       <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3615,10 +3858,13 @@
         <v>148</v>
       </c>
       <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3626,10 +3872,13 @@
         <v>150</v>
       </c>
       <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3637,10 +3886,13 @@
         <v>152</v>
       </c>
       <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3648,10 +3900,13 @@
         <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3659,10 +3914,13 @@
         <v>155</v>
       </c>
       <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3670,10 +3928,13 @@
         <v>157</v>
       </c>
       <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3681,10 +3942,13 @@
         <v>159</v>
       </c>
       <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3692,10 +3956,13 @@
         <v>161</v>
       </c>
       <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3703,10 +3970,13 @@
         <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="D89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3714,10 +3984,13 @@
         <v>164</v>
       </c>
       <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3725,10 +3998,13 @@
         <v>166</v>
       </c>
       <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3736,10 +4012,13 @@
         <v>168</v>
       </c>
       <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3747,10 +4026,13 @@
         <v>170</v>
       </c>
       <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3758,10 +4040,13 @@
         <v>172</v>
       </c>
       <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3769,10 +4054,13 @@
         <v>174</v>
       </c>
       <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3780,10 +4068,13 @@
         <v>176</v>
       </c>
       <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3791,10 +4082,13 @@
         <v>178</v>
       </c>
       <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3802,10 +4096,13 @@
         <v>180</v>
       </c>
       <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3813,10 +4110,13 @@
         <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3824,10 +4124,13 @@
         <v>183</v>
       </c>
       <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3835,10 +4138,13 @@
         <v>185</v>
       </c>
       <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3846,10 +4152,13 @@
         <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D102" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3857,10 +4166,13 @@
         <v>188</v>
       </c>
       <c r="C103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3868,10 +4180,13 @@
         <v>190</v>
       </c>
       <c r="C104" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3879,10 +4194,13 @@
         <v>192</v>
       </c>
       <c r="C105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3890,10 +4208,13 @@
         <v>194</v>
       </c>
       <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3901,10 +4222,13 @@
         <v>196</v>
       </c>
       <c r="C107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3912,10 +4236,13 @@
         <v>198</v>
       </c>
       <c r="C108" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3923,10 +4250,13 @@
         <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D109" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3934,10 +4264,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3945,10 +4278,13 @@
         <v>203</v>
       </c>
       <c r="C111" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D111" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3956,10 +4292,13 @@
         <v>204</v>
       </c>
       <c r="C112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3967,10 +4306,13 @@
         <v>206</v>
       </c>
       <c r="C113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3978,10 +4320,13 @@
         <v>208</v>
       </c>
       <c r="C114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3989,10 +4334,13 @@
         <v>210</v>
       </c>
       <c r="C115" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4000,10 +4348,13 @@
         <v>211</v>
       </c>
       <c r="C116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4011,10 +4362,13 @@
         <v>213</v>
       </c>
       <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4022,10 +4376,13 @@
         <v>215</v>
       </c>
       <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4033,10 +4390,13 @@
         <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D119" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4044,10 +4404,13 @@
         <v>218</v>
       </c>
       <c r="C120" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4055,10 +4418,13 @@
         <v>220</v>
       </c>
       <c r="C121" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4066,10 +4432,13 @@
         <v>222</v>
       </c>
       <c r="C122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4077,10 +4446,13 @@
         <v>224</v>
       </c>
       <c r="C123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4088,10 +4460,13 @@
         <v>226</v>
       </c>
       <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4099,10 +4474,13 @@
         <v>228</v>
       </c>
       <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4110,10 +4488,13 @@
         <v>230</v>
       </c>
       <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4121,10 +4502,13 @@
         <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>232</v>
+      </c>
+      <c r="D127" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4132,10 +4516,13 @@
         <v>233</v>
       </c>
       <c r="C128" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4143,10 +4530,13 @@
         <v>235</v>
       </c>
       <c r="C129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4154,10 +4544,13 @@
         <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D130" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4165,10 +4558,13 @@
         <v>238</v>
       </c>
       <c r="C131" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>238</v>
+      </c>
+      <c r="D131" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4176,10 +4572,13 @@
         <v>239</v>
       </c>
       <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4187,10 +4586,13 @@
         <v>241</v>
       </c>
       <c r="C133" t="s">
+        <v>241</v>
+      </c>
+      <c r="D133" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4198,10 +4600,13 @@
         <v>243</v>
       </c>
       <c r="C134" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4209,10 +4614,13 @@
         <v>245</v>
       </c>
       <c r="C135" t="s">
+        <v>245</v>
+      </c>
+      <c r="D135" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4220,10 +4628,13 @@
         <v>247</v>
       </c>
       <c r="C136" t="s">
+        <v>247</v>
+      </c>
+      <c r="D136" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4231,10 +4642,13 @@
         <v>249</v>
       </c>
       <c r="C137" t="s">
+        <v>249</v>
+      </c>
+      <c r="D137" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4242,10 +4656,13 @@
         <v>251</v>
       </c>
       <c r="C138" t="s">
+        <v>251</v>
+      </c>
+      <c r="D138" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4253,10 +4670,13 @@
         <v>253</v>
       </c>
       <c r="C139" t="s">
+        <v>253</v>
+      </c>
+      <c r="D139" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4264,10 +4684,13 @@
         <v>255</v>
       </c>
       <c r="C140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D140" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4275,10 +4698,13 @@
         <v>257</v>
       </c>
       <c r="C141" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4286,10 +4712,13 @@
         <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="D142" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4297,10 +4726,13 @@
         <v>260</v>
       </c>
       <c r="C143" t="s">
+        <v>260</v>
+      </c>
+      <c r="D143" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4308,10 +4740,13 @@
         <v>262</v>
       </c>
       <c r="C144" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4319,10 +4754,13 @@
         <v>264</v>
       </c>
       <c r="C145" t="s">
+        <v>264</v>
+      </c>
+      <c r="D145" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4330,10 +4768,13 @@
         <v>266</v>
       </c>
       <c r="C146" t="s">
+        <v>266</v>
+      </c>
+      <c r="D146" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4341,10 +4782,13 @@
         <v>268</v>
       </c>
       <c r="C147" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4352,10 +4796,13 @@
         <v>270</v>
       </c>
       <c r="C148" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4363,10 +4810,13 @@
         <v>272</v>
       </c>
       <c r="C149" t="s">
+        <v>272</v>
+      </c>
+      <c r="D149" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4374,10 +4824,13 @@
         <v>274</v>
       </c>
       <c r="C150" t="s">
+        <v>274</v>
+      </c>
+      <c r="D150" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4385,10 +4838,13 @@
         <v>276</v>
       </c>
       <c r="C151" t="s">
+        <v>276</v>
+      </c>
+      <c r="D151" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4396,10 +4852,13 @@
         <v>278</v>
       </c>
       <c r="C152" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4407,10 +4866,13 @@
         <v>280</v>
       </c>
       <c r="C153" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="D153" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4418,10 +4880,13 @@
         <v>281</v>
       </c>
       <c r="C154" t="s">
+        <v>281</v>
+      </c>
+      <c r="D154" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4429,10 +4894,13 @@
         <v>283</v>
       </c>
       <c r="C155" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4440,10 +4908,13 @@
         <v>285</v>
       </c>
       <c r="C156" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4451,10 +4922,13 @@
         <v>287</v>
       </c>
       <c r="C157" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4462,10 +4936,13 @@
         <v>289</v>
       </c>
       <c r="C158" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>289</v>
+      </c>
+      <c r="D158" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4473,10 +4950,13 @@
         <v>290</v>
       </c>
       <c r="C159" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>290</v>
+      </c>
+      <c r="D159" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4484,10 +4964,13 @@
         <v>291</v>
       </c>
       <c r="C160" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4495,10 +4978,13 @@
         <v>293</v>
       </c>
       <c r="C161" t="s">
+        <v>293</v>
+      </c>
+      <c r="D161" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4506,10 +4992,13 @@
         <v>295</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D162" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4517,10 +5006,13 @@
         <v>296</v>
       </c>
       <c r="C163" t="s">
+        <v>296</v>
+      </c>
+      <c r="D163" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4528,10 +5020,13 @@
         <v>298</v>
       </c>
       <c r="C164" t="s">
+        <v>298</v>
+      </c>
+      <c r="D164" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4539,10 +5034,13 @@
         <v>300</v>
       </c>
       <c r="C165" t="s">
+        <v>300</v>
+      </c>
+      <c r="D165" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4550,10 +5048,13 @@
         <v>302</v>
       </c>
       <c r="C166" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>302</v>
+      </c>
+      <c r="D166" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4561,10 +5062,13 @@
         <v>303</v>
       </c>
       <c r="C167" t="s">
+        <v>303</v>
+      </c>
+      <c r="D167" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4572,10 +5076,13 @@
         <v>305</v>
       </c>
       <c r="C168" t="s">
+        <v>305</v>
+      </c>
+      <c r="D168" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4583,10 +5090,13 @@
         <v>307</v>
       </c>
       <c r="C169" t="s">
+        <v>307</v>
+      </c>
+      <c r="D169" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4594,10 +5104,13 @@
         <v>309</v>
       </c>
       <c r="C170" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4605,10 +5118,13 @@
         <v>311</v>
       </c>
       <c r="C171" t="s">
+        <v>311</v>
+      </c>
+      <c r="D171" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4616,10 +5132,13 @@
         <v>313</v>
       </c>
       <c r="C172" t="s">
+        <v>313</v>
+      </c>
+      <c r="D172" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4627,10 +5146,13 @@
         <v>315</v>
       </c>
       <c r="C173" t="s">
+        <v>315</v>
+      </c>
+      <c r="D173" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4638,10 +5160,13 @@
         <v>317</v>
       </c>
       <c r="C174" t="s">
+        <v>317</v>
+      </c>
+      <c r="D174" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4649,10 +5174,13 @@
         <v>319</v>
       </c>
       <c r="C175" t="s">
+        <v>319</v>
+      </c>
+      <c r="D175" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4660,10 +5188,13 @@
         <v>321</v>
       </c>
       <c r="C176" t="s">
+        <v>321</v>
+      </c>
+      <c r="D176" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4671,10 +5202,13 @@
         <v>323</v>
       </c>
       <c r="C177" t="s">
+        <v>323</v>
+      </c>
+      <c r="D177" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4682,10 +5216,13 @@
         <v>325</v>
       </c>
       <c r="C178" t="s">
+        <v>325</v>
+      </c>
+      <c r="D178" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4693,10 +5230,13 @@
         <v>327</v>
       </c>
       <c r="C179" t="s">
+        <v>327</v>
+      </c>
+      <c r="D179" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4704,10 +5244,13 @@
         <v>329</v>
       </c>
       <c r="C180" t="s">
+        <v>329</v>
+      </c>
+      <c r="D180" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4715,10 +5258,13 @@
         <v>331</v>
       </c>
       <c r="C181" t="s">
+        <v>331</v>
+      </c>
+      <c r="D181" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4726,10 +5272,13 @@
         <v>333</v>
       </c>
       <c r="C182" t="s">
+        <v>333</v>
+      </c>
+      <c r="D182" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4737,10 +5286,13 @@
         <v>335</v>
       </c>
       <c r="C183" t="s">
+        <v>335</v>
+      </c>
+      <c r="D183" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4748,10 +5300,13 @@
         <v>337</v>
       </c>
       <c r="C184" t="s">
+        <v>337</v>
+      </c>
+      <c r="D184" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4759,10 +5314,13 @@
         <v>339</v>
       </c>
       <c r="C185" t="s">
+        <v>339</v>
+      </c>
+      <c r="D185" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4770,10 +5328,13 @@
         <v>341</v>
       </c>
       <c r="C186" t="s">
+        <v>341</v>
+      </c>
+      <c r="D186" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4781,10 +5342,13 @@
         <v>343</v>
       </c>
       <c r="C187" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>343</v>
+      </c>
+      <c r="D187" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4792,10 +5356,13 @@
         <v>344</v>
       </c>
       <c r="C188" t="s">
+        <v>344</v>
+      </c>
+      <c r="D188" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4803,10 +5370,13 @@
         <v>346</v>
       </c>
       <c r="C189" t="s">
+        <v>346</v>
+      </c>
+      <c r="D189" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4814,10 +5384,13 @@
         <v>348</v>
       </c>
       <c r="C190" t="s">
+        <v>348</v>
+      </c>
+      <c r="D190" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4825,10 +5398,13 @@
         <v>350</v>
       </c>
       <c r="C191" t="s">
+        <v>350</v>
+      </c>
+      <c r="D191" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4836,10 +5412,13 @@
         <v>352</v>
       </c>
       <c r="C192" t="s">
+        <v>352</v>
+      </c>
+      <c r="D192" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4847,10 +5426,13 @@
         <v>354</v>
       </c>
       <c r="C193" t="s">
+        <v>354</v>
+      </c>
+      <c r="D193" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4858,10 +5440,13 @@
         <v>356</v>
       </c>
       <c r="C194" t="s">
+        <v>356</v>
+      </c>
+      <c r="D194" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4869,10 +5454,13 @@
         <v>358</v>
       </c>
       <c r="C195" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4880,10 +5468,13 @@
         <v>360</v>
       </c>
       <c r="C196" t="s">
+        <v>360</v>
+      </c>
+      <c r="D196" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4891,10 +5482,13 @@
         <v>362</v>
       </c>
       <c r="C197" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>362</v>
+      </c>
+      <c r="D197" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4902,10 +5496,13 @@
         <v>363</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>363</v>
+      </c>
+      <c r="D198" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4913,10 +5510,13 @@
         <v>364</v>
       </c>
       <c r="C199" t="s">
+        <v>364</v>
+      </c>
+      <c r="D199" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4924,10 +5524,13 @@
         <v>366</v>
       </c>
       <c r="C200" t="s">
+        <v>366</v>
+      </c>
+      <c r="D200" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4935,10 +5538,13 @@
         <v>368</v>
       </c>
       <c r="C201" t="s">
+        <v>368</v>
+      </c>
+      <c r="D201" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4946,10 +5552,13 @@
         <v>370</v>
       </c>
       <c r="C202" t="s">
+        <v>370</v>
+      </c>
+      <c r="D202" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4957,10 +5566,13 @@
         <v>372</v>
       </c>
       <c r="C203" t="s">
+        <v>372</v>
+      </c>
+      <c r="D203" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4968,10 +5580,13 @@
         <v>374</v>
       </c>
       <c r="C204" t="s">
+        <v>374</v>
+      </c>
+      <c r="D204" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4979,10 +5594,13 @@
         <v>376</v>
       </c>
       <c r="C205" t="s">
+        <v>376</v>
+      </c>
+      <c r="D205" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4990,10 +5608,13 @@
         <v>378</v>
       </c>
       <c r="C206" t="s">
+        <v>378</v>
+      </c>
+      <c r="D206" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5001,10 +5622,13 @@
         <v>380</v>
       </c>
       <c r="C207" t="s">
+        <v>380</v>
+      </c>
+      <c r="D207" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5012,10 +5636,13 @@
         <v>382</v>
       </c>
       <c r="C208" t="s">
+        <v>382</v>
+      </c>
+      <c r="D208" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5023,10 +5650,13 @@
         <v>384</v>
       </c>
       <c r="C209" t="s">
+        <v>384</v>
+      </c>
+      <c r="D209" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5034,10 +5664,13 @@
         <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>386</v>
+      </c>
+      <c r="D210" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5045,10 +5678,13 @@
         <v>387</v>
       </c>
       <c r="C211" t="s">
+        <v>387</v>
+      </c>
+      <c r="D211" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5056,10 +5692,13 @@
         <v>389</v>
       </c>
       <c r="C212" t="s">
+        <v>389</v>
+      </c>
+      <c r="D212" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5067,10 +5706,13 @@
         <v>391</v>
       </c>
       <c r="C213" t="s">
+        <v>391</v>
+      </c>
+      <c r="D213" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5078,10 +5720,13 @@
         <v>393</v>
       </c>
       <c r="C214" t="s">
+        <v>393</v>
+      </c>
+      <c r="D214" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5089,10 +5734,13 @@
         <v>395</v>
       </c>
       <c r="C215" t="s">
+        <v>395</v>
+      </c>
+      <c r="D215" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5100,10 +5748,13 @@
         <v>397</v>
       </c>
       <c r="C216" t="s">
+        <v>397</v>
+      </c>
+      <c r="D216" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5111,10 +5762,13 @@
         <v>399</v>
       </c>
       <c r="C217" t="s">
+        <v>399</v>
+      </c>
+      <c r="D217" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5122,10 +5776,13 @@
         <v>401</v>
       </c>
       <c r="C218" t="s">
+        <v>401</v>
+      </c>
+      <c r="D218" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5133,10 +5790,13 @@
         <v>403</v>
       </c>
       <c r="C219" t="s">
+        <v>403</v>
+      </c>
+      <c r="D219" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5144,10 +5804,13 @@
         <v>405</v>
       </c>
       <c r="C220" t="s">
+        <v>405</v>
+      </c>
+      <c r="D220" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5155,10 +5818,13 @@
         <v>407</v>
       </c>
       <c r="C221" t="s">
+        <v>407</v>
+      </c>
+      <c r="D221" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5166,10 +5832,13 @@
         <v>409</v>
       </c>
       <c r="C222" t="s">
+        <v>409</v>
+      </c>
+      <c r="D222" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5177,10 +5846,13 @@
         <v>411</v>
       </c>
       <c r="C223" t="s">
+        <v>411</v>
+      </c>
+      <c r="D223" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5188,10 +5860,13 @@
         <v>413</v>
       </c>
       <c r="C224" t="s">
+        <v>413</v>
+      </c>
+      <c r="D224" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5199,10 +5874,13 @@
         <v>415</v>
       </c>
       <c r="C225" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D225" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5210,10 +5888,13 @@
         <v>416</v>
       </c>
       <c r="C226" t="s">
+        <v>416</v>
+      </c>
+      <c r="D226" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5221,10 +5902,13 @@
         <v>418</v>
       </c>
       <c r="C227" t="s">
+        <v>418</v>
+      </c>
+      <c r="D227" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5232,10 +5916,13 @@
         <v>420</v>
       </c>
       <c r="C228" t="s">
+        <v>420</v>
+      </c>
+      <c r="D228" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5243,10 +5930,13 @@
         <v>422</v>
       </c>
       <c r="C229" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D229" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5254,10 +5944,13 @@
         <v>423</v>
       </c>
       <c r="C230" t="s">
+        <v>423</v>
+      </c>
+      <c r="D230" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5265,10 +5958,13 @@
         <v>425</v>
       </c>
       <c r="C231" t="s">
+        <v>425</v>
+      </c>
+      <c r="D231" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5276,10 +5972,13 @@
         <v>427</v>
       </c>
       <c r="C232" t="s">
+        <v>427</v>
+      </c>
+      <c r="D232" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5287,10 +5986,13 @@
         <v>429</v>
       </c>
       <c r="C233" t="s">
+        <v>429</v>
+      </c>
+      <c r="D233" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5298,10 +6000,13 @@
         <v>431</v>
       </c>
       <c r="C234" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>431</v>
+      </c>
+      <c r="D234" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5309,10 +6014,13 @@
         <v>432</v>
       </c>
       <c r="C235" t="s">
+        <v>432</v>
+      </c>
+      <c r="D235" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5320,10 +6028,13 @@
         <v>434</v>
       </c>
       <c r="C236" t="s">
+        <v>434</v>
+      </c>
+      <c r="D236" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5331,10 +6042,13 @@
         <v>436</v>
       </c>
       <c r="C237" t="s">
+        <v>436</v>
+      </c>
+      <c r="D237" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5342,10 +6056,13 @@
         <v>438</v>
       </c>
       <c r="C238" t="s">
+        <v>438</v>
+      </c>
+      <c r="D238" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5353,10 +6070,13 @@
         <v>440</v>
       </c>
       <c r="C239" t="s">
+        <v>440</v>
+      </c>
+      <c r="D239" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5364,10 +6084,13 @@
         <v>442</v>
       </c>
       <c r="C240" t="s">
+        <v>442</v>
+      </c>
+      <c r="D240" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5375,10 +6098,13 @@
         <v>444</v>
       </c>
       <c r="C241" t="s">
+        <v>444</v>
+      </c>
+      <c r="D241" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5386,10 +6112,13 @@
         <v>446</v>
       </c>
       <c r="C242" t="s">
+        <v>446</v>
+      </c>
+      <c r="D242" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5397,219 +6126,222 @@
         <v>448</v>
       </c>
       <c r="C243" t="s">
+        <v>448</v>
+      </c>
+      <c r="D243" t="s">
         <v>449</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://international.neb.com/products/r0598-acli"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://international.neb.com/products/r0538-mluci"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://international.neb.com/products/r0655-pcii"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://international.neb.com/products/r3552-agei-hf"/>
-    <hyperlink ref="C9" r:id="rId5" display="https://international.neb.com/products/r0605-sexai"/>
-    <hyperlink ref="C11" r:id="rId6" display="https://international.neb.com/products/r0623-bceai"/>
-    <hyperlink ref="C12" r:id="rId7" display="https://international.neb.com/products/r0619-hpych4iv"/>
-    <hyperlink ref="C13" r:id="rId8" display="https://international.neb.com/products/r0618-hpych4iii"/>
-    <hyperlink ref="C14" r:id="rId9" display="https://international.neb.com/products/r0613-baei"/>
-    <hyperlink ref="C15" r:id="rId10" display="https://international.neb.com/products/r0609-bsaxi"/>
-    <hyperlink ref="C16" r:id="rId11" display="https://international.neb.com/products/r0541-afliii"/>
-    <hyperlink ref="C17" r:id="rId12" display="https://international.neb.com/products/r3133-spei-hf"/>
-    <hyperlink ref="C18" r:id="rId13" display="https://international.neb.com/products/r0527-bsri"/>
-    <hyperlink ref="C19" r:id="rId14" display="https://international.neb.com/products/r0600-bmri"/>
-    <hyperlink ref="C20" r:id="rId15" display="https://international.neb.com/products/r0144-bglii"/>
-    <hyperlink ref="C21" r:id="rId16" display="https://international.neb.com/products/r0652-afei"/>
-    <hyperlink ref="C22" r:id="rId17" display="https://international.neb.com/products/r0137-alui"/>
-    <hyperlink ref="C23" r:id="rId18" display="https://international.neb.com/products/r0187-stui"/>
-    <hyperlink ref="C24" r:id="rId19" display="https://international.neb.com/products/r3122-scai-hf"/>
-    <hyperlink ref="C26" r:id="rId20" display="https://international.neb.com/products/r0696-pi-scei"/>
-    <hyperlink ref="C28" r:id="rId21" display="https://international.neb.com/products/r0526-asei"/>
-    <hyperlink ref="C29" r:id="rId22" display="https://international.neb.com/products/r0604-swai"/>
-    <hyperlink ref="C30" r:id="rId23" display="https://international.neb.com/products/r0645-cspci"/>
-    <hyperlink ref="C31" r:id="rId24" display="https://international.neb.com/products/r3589-mfei-hf"/>
-    <hyperlink ref="C32" r:id="rId25" display="https://international.neb.com/products/r0745-paqci"/>
-    <hyperlink ref="C33" r:id="rId26" display="https://international.neb.com/products/r0681-nbbsssi"/>
-    <hyperlink ref="C34" r:id="rId27" display="https://international.neb.com/products/r0680-bsssi-v2"/>
-    <hyperlink ref="C35" r:id="rId28" display="https://international.neb.com/products/r0628-bmgbi"/>
-    <hyperlink ref="C36" r:id="rId29" display="https://international.neb.com/products/r0532-pmli"/>
-    <hyperlink ref="C37" r:id="rId30" display="https://international.neb.com/products/r3510-draiii-hf"/>
-    <hyperlink ref="C38" r:id="rId31" display="https://international.neb.com/products/r0685-alei-v2"/>
-    <hyperlink ref="C39" r:id="rId32" display="https://international.neb.com/products/r0646-ecop15i"/>
-    <hyperlink ref="C41" r:id="rId33" display="https://international.neb.com/products/r0514-alwni"/>
-    <hyperlink ref="C42" r:id="rId34" display="https://international.neb.com/products/r0664-btsimuti"/>
-    <hyperlink ref="C43" r:id="rId35" display="https://international.neb.com/products/r0111-ndei"/>
-    <hyperlink ref="C44" r:id="rId36" display="https://international.neb.com/products/r0125-nlaiii"/>
-    <hyperlink ref="C45" r:id="rId37" display="https://international.neb.com/products/r0640-cviaii"/>
-    <hyperlink ref="C46" r:id="rId38" display="https://international.neb.com/products/r0650-fati"/>
-    <hyperlink ref="C47" r:id="rId39" display="https://international.neb.com/products/r0571-msli"/>
-    <hyperlink ref="C48" r:id="rId40" display="https://international.neb.com/products/r0662-fspei"/>
-    <hyperlink ref="C49" r:id="rId41" display="https://international.neb.com/products/r0533-xcmi"/>
-    <hyperlink ref="C50" r:id="rId42" display="https://international.neb.com/products/r0113-bstxi"/>
-    <hyperlink ref="C51" r:id="rId43" display="https://international.neb.com/products/r0509-pflmi"/>
-    <hyperlink ref="C52" r:id="rId44" display="https://international.neb.com/products/r0704-bcci"/>
-    <hyperlink ref="C54" r:id="rId45" display="https://international.neb.com/products/r0635-bseyi"/>
-    <hyperlink ref="C55" r:id="rId46" display="https://international.neb.com/products/r0651-faui"/>
-    <hyperlink ref="C57" r:id="rId47" display="https://international.neb.com/products/r0141-smai"/>
-    <hyperlink ref="C58" r:id="rId48" display="https://international.neb.com/products/r0626-ntcvipii"/>
-    <hyperlink ref="C59" r:id="rId49" display="https://international.neb.com/products/r0663-lpnpi"/>
-    <hyperlink ref="C60" r:id="rId50" display="https://international.neb.com/products/r0551-acii"/>
-    <hyperlink ref="C61" r:id="rId51" display="https://international.neb.com/products/r0157-sacii"/>
-    <hyperlink ref="C62" r:id="rId52" display="https://international.neb.com/products/r0102-bsrbi"/>
-    <hyperlink ref="C64" r:id="rId53" display="https://international.neb.com/products/r0638-styd4i"/>
-    <hyperlink ref="C65" r:id="rId54" display="https://international.neb.com/products/r0110-scrfi"/>
-    <hyperlink ref="C66" r:id="rId55" display="https://international.neb.com/products/r0536-bsaji"/>
-    <hyperlink ref="C67" r:id="rId56" display="https://international.neb.com/products/r0555-bsli"/>
-    <hyperlink ref="C68" r:id="rId57" display="https://international.neb.com/products/r0608-btgi"/>
-    <hyperlink ref="C69" r:id="rId58" display="https://international.neb.com/products/r0196-ncii"/>
-    <hyperlink ref="C70" r:id="rId59" display="https://international.neb.com/products/r0174-avrii"/>
-    <hyperlink ref="C71" r:id="rId60" display="https://international.neb.com/products/r0163-mnli"/>
-    <hyperlink ref="C72" r:id="rId61" display="https://international.neb.com/products/r0632-ntbbvci"/>
-    <hyperlink ref="C73" r:id="rId62" display="https://international.neb.com/products/r0601-bbvci"/>
-    <hyperlink ref="C74" r:id="rId63" display="https://international.neb.com/products/r0631-nbbbvci"/>
-    <hyperlink ref="C75" r:id="rId64" display="https://international.neb.com/products/r3642-sbfi-hf"/>
-    <hyperlink ref="C76" r:id="rId65" display="https://international.neb.com/products/r0649-bpu10i"/>
-    <hyperlink ref="C77" r:id="rId66" display="https://international.neb.com/products/r0524-bsu36i"/>
-    <hyperlink ref="C78" r:id="rId67" display="https://international.neb.com/products/r0521-econi"/>
-    <hyperlink ref="C79" r:id="rId68" display="https://international.neb.com/products/r0621-hpyav"/>
-    <hyperlink ref="C80" r:id="rId69" display="https://international.neb.com/products/r0611-pspgi"/>
-    <hyperlink ref="C81" r:id="rId70" display="https://international.neb.com/products/r0168-bstni"/>
-    <hyperlink ref="C82" r:id="rId71" display="https://international.neb.com/products/r3500-styi-hf"/>
-    <hyperlink ref="C83" r:id="rId72" display="https://international.neb.com/products/r0545-bcgi"/>
-    <hyperlink ref="C85" r:id="rId73" display="https://international.neb.com/products/r0518-bstui"/>
-    <hyperlink ref="C86" r:id="rId74" display="https://international.neb.com/products/r3505-eagi-hf"/>
-    <hyperlink ref="C87" r:id="rId75" display="https://international.neb.com/products/r0501-rsrii"/>
-    <hyperlink ref="C88" r:id="rId76" display="https://international.neb.com/products/r0554-bsiei"/>
-    <hyperlink ref="C90" r:id="rId77" display="https://international.neb.com/products/r0739-bsmbi-v2"/>
-    <hyperlink ref="C91" r:id="rId78" display="https://international.neb.com/products/r0734-esp3i"/>
-    <hyperlink ref="C92" r:id="rId79" display="https://international.neb.com/products/r0615-hpy99i"/>
-    <hyperlink ref="C93" r:id="rId80" display="https://international.neb.com/products/r0577-mspa1i"/>
-    <hyperlink ref="C94" r:id="rId81" display="https://international.neb.com/products/r0665-abasi"/>
-    <hyperlink ref="C95" r:id="rId82" display="https://international.neb.com/products/r0661-mspji"/>
-    <hyperlink ref="C96" r:id="rId83" display="https://international.neb.com/products/r0603-sgrai"/>
-    <hyperlink ref="C97" r:id="rId84" display="https://international.neb.com/products/r0568-bfai"/>
-    <hyperlink ref="C98" r:id="rId85" display="https://international.neb.com/products/r0624-bspcni"/>
-    <hyperlink ref="C100" r:id="rId86" display="https://international.neb.com/products/r0528-eari"/>
-    <hyperlink ref="C101" r:id="rId87" display="https://international.neb.com/products/r0641-acui"/>
-    <hyperlink ref="C103" r:id="rId88" display="https://international.neb.com/products/r0565-bpmi"/>
-    <hyperlink ref="C104" r:id="rId89" display="https://international.neb.com/products/r0175-ddel"/>
-    <hyperlink ref="C105" r:id="rId90" display="https://international.neb.com/products/r0561-sfci"/>
-    <hyperlink ref="C106" r:id="rId91" display="https://international.neb.com/products/r0520-aflii"/>
-    <hyperlink ref="C107" r:id="rId92" display="https://international.neb.com/products/r0633-bpuei"/>
-    <hyperlink ref="C108" r:id="rId93" display="https://international.neb.com/products/r0597-smli"/>
-    <hyperlink ref="C110" r:id="rId94" display="https://international.neb.com/products/r0148-mboii"/>
-    <hyperlink ref="C112" r:id="rId95" display="https://international.neb.com/products/r0194-xmni"/>
-    <hyperlink ref="C113" r:id="rId96" display="https://international.neb.com/products/r0134-bsmi"/>
-    <hyperlink ref="C114" r:id="rId97" display="https://international.neb.com/products/r0706-nbbsmi"/>
-    <hyperlink ref="C116" r:id="rId98" display="https://international.neb.com/products/r0154-hgai"/>
-    <hyperlink ref="C117" r:id="rId99" display="https://international.neb.com/products/r0659-zrai"/>
-    <hyperlink ref="C118" r:id="rId100" display="https://international.neb.com/products/r0117-aatii"/>
-    <hyperlink ref="C120" r:id="rId101" display="https://international.neb.com/products/r0593-pshai"/>
-    <hyperlink ref="C121" r:id="rId102" display="https://international.neb.com/products/r0584-ahdi"/>
-    <hyperlink ref="C122" r:id="rId103" display="https://international.neb.com/products/r0530-drdi"/>
-    <hyperlink ref="C123" r:id="rId104" display="https://international.neb.com/products/r0116-eco53ki"/>
-    <hyperlink ref="C124" r:id="rId105" display="https://international.neb.com/products/r3156-saci-hf"/>
-    <hyperlink ref="C125" r:id="rId106" display="https://international.neb.com/products/r0581-bseri"/>
-    <hyperlink ref="C126" r:id="rId107" display="https://international.neb.com/products/r0610-mlyi"/>
-    <hyperlink ref="C128" r:id="rId108" display="https://international.neb.com/products/r0515-plei"/>
-    <hyperlink ref="C129" r:id="rId109" display="https://international.neb.com/products/r0155-hinfi"/>
-    <hyperlink ref="C132" r:id="rId110" display="https://international.neb.com/products/r0176-dpni"/>
-    <hyperlink ref="C133" r:id="rId111" display="https://international.neb.com/products/r0537-bsabi"/>
-    <hyperlink ref="C134" r:id="rId112" display="https://international.neb.com/products/r0546-tfii"/>
-    <hyperlink ref="C135" r:id="rId113" display="https://international.neb.com/products/r0648-nbbsrdi"/>
-    <hyperlink ref="C136" r:id="rId114" display="https://international.neb.com/products/r0574-bsrdi"/>
-    <hyperlink ref="C137" r:id="rId115" display="https://international.neb.com/products/r0173-bbvi"/>
-    <hyperlink ref="C138" r:id="rId116" display="https://international.neb.com/products/r0667-btsi-v2"/>
-    <hyperlink ref="C139" r:id="rId117" display="https://international.neb.com/products/r0707-nbbtsi"/>
-    <hyperlink ref="C140" r:id="rId118" display="https://international.neb.com/products/r0654-bstapi"/>
-    <hyperlink ref="C141" r:id="rId119" display="https://international.neb.com/products/r0172-sfani"/>
-    <hyperlink ref="C143" r:id="rId120" display="https://international.neb.com/products/r0629-srfi"/>
-    <hyperlink ref="C144" r:id="rId121" display="https://international.neb.com/products/r0711-nmeaiii"/>
-    <hyperlink ref="C145" r:id="rId122" display="https://international.neb.com/products/r0190-naei"/>
-    <hyperlink ref="C146" r:id="rId123" display="https://international.neb.com/products/r0564-ngomiv"/>
-    <hyperlink ref="C147" r:id="rId124" display="https://international.neb.com/products/r0143-bgli"/>
-    <hyperlink ref="C148" r:id="rId125" display="https://international.neb.com/products/r0630-asisi"/>
-    <hyperlink ref="C149" r:id="rId126" display="https://international.neb.com/products/r0703-btgzi"/>
-    <hyperlink ref="C150" r:id="rId127" display="https://international.neb.com/products/r0139-hhai"/>
-    <hyperlink ref="C151" r:id="rId128" display="https://international.neb.com/products/r0124-hinp1i"/>
-    <hyperlink ref="C152" r:id="rId129" display="https://international.neb.com/products/r0199-bsshii"/>
-    <hyperlink ref="C154" r:id="rId130" display="https://international.neb.com/products/r0178-fnu4hi"/>
-    <hyperlink ref="C155" r:id="rId131" display="https://international.neb.com/products/r0579-cac8i"/>
-    <hyperlink ref="C156" r:id="rId132" display="https://international.neb.com/products/r0573-mwoi"/>
-    <hyperlink ref="C157" r:id="rId133" display="https://international.neb.com/products/r3131-nhei-hf"/>
-    <hyperlink ref="C160" r:id="rId134" display="https://international.neb.com/products/r0644-ntbspqi"/>
-    <hyperlink ref="C161" r:id="rId135" display="https://international.neb.com/products/r0585-blpi"/>
-    <hyperlink ref="C163" r:id="rId136" display="https://international.neb.com/products/r0120-bsp1286i"/>
-    <hyperlink ref="C164" r:id="rId137" display="https://international.neb.com/products/r0513-alwi"/>
-    <hyperlink ref="C165" r:id="rId138" display="https://international.neb.com/products/r0627-ntalwi"/>
-    <hyperlink ref="C167" r:id="rId139" display="https://international.neb.com/products/r0109-foki"/>
-    <hyperlink ref="C168" r:id="rId140" display="https://international.neb.com/products/r0647-btsci"/>
-    <hyperlink ref="C169" r:id="rId141" display="https://international.neb.com/products/r0108-haeiii"/>
-    <hyperlink ref="C170" r:id="rId142" display="https://international.neb.com/products/r0588-fsei"/>
-    <hyperlink ref="C171" r:id="rId143" display="https://international.neb.com/products/r0123-sfii"/>
-    <hyperlink ref="C172" r:id="rId144" display="https://international.neb.com/products/r0191-narl"/>
-    <hyperlink ref="C173" r:id="rId145" display="https://international.neb.com/products/r0606-sfoi"/>
-    <hyperlink ref="C174" r:id="rId146" display="https://international.neb.com/products/r0544-kasi"/>
-    <hyperlink ref="C175" r:id="rId147" display="https://international.neb.com/products/r0713-pluti"/>
-    <hyperlink ref="C176" r:id="rId148" display="https://international.neb.com/products/r0558-asci"/>
-    <hyperlink ref="C177" r:id="rId149" display="https://international.neb.com/products/r0590-ecii"/>
-    <hyperlink ref="C178" r:id="rId150" display="https://international.neb.com/products/r0572-bsmfi"/>
-    <hyperlink ref="C179" r:id="rId151" display="https://international.neb.com/products/r0653-pspomi"/>
-    <hyperlink ref="C180" r:id="rId152" display="https://international.neb.com/products/r0114-apai"/>
-    <hyperlink ref="C181" r:id="rId153" display="https://international.neb.com/products/r0165-sau96i"/>
-    <hyperlink ref="C182" r:id="rId154" display="https://international.neb.com/products/r0126-nlaiv"/>
-    <hyperlink ref="C183" r:id="rId155" display="https://international.neb.com/products/r3142-kpni-hf"/>
-    <hyperlink ref="C184" r:id="rId156" display="https://international.neb.com/products/r0599-acc65i"/>
-    <hyperlink ref="C185" r:id="rId157" display="https://international.neb.com/products/r3733-bsai-hf-v2"/>
-    <hyperlink ref="C186" r:id="rId158" display="https://international.neb.com/products/r0158-hphi"/>
-    <hyperlink ref="C188" r:id="rId159" display="https://international.neb.com/products/r0153-avaii"/>
-    <hyperlink ref="C189" r:id="rId160" display="https://international.neb.com/products/r0118-bani"/>
-    <hyperlink ref="C190" r:id="rId161" display="https://international.neb.com/products/r0708-baegi"/>
-    <hyperlink ref="C191" r:id="rId162" display="https://international.neb.com/products/r0556-bsahi"/>
-    <hyperlink ref="C192" r:id="rId163" display="https://international.neb.com/products/r0119-banii"/>
-    <hyperlink ref="C193" r:id="rId164" display="https://international.neb.com/products/r0167-rsai"/>
-    <hyperlink ref="C194" r:id="rId165" display="https://international.neb.com/products/r0639-cviqi"/>
-    <hyperlink ref="C195" r:id="rId166" display="https://international.neb.com/products/r3594-bstz17i-hf"/>
-    <hyperlink ref="C196" r:id="rId167" display="https://international.neb.com/products/r0596-bcivi"/>
-    <hyperlink ref="C199" r:id="rId168" display="https://international.neb.com/products/r0121-ntbsmai"/>
-    <hyperlink ref="C200" r:id="rId169" display="https://international.neb.com/products/r0507-apali"/>
-    <hyperlink ref="C201" r:id="rId170" display="https://international.neb.com/products/r0559-bsgi"/>
-    <hyperlink ref="C202" r:id="rId171" display="https://international.neb.com/products/r0161-acci"/>
-    <hyperlink ref="C203" r:id="rId172" display="https://international.neb.com/products/r0616-hpy166ii"/>
-    <hyperlink ref="C204" r:id="rId173" display="https://international.neb.com/products/r0583-tsp45i"/>
-    <hyperlink ref="C205" r:id="rId174" display="https://international.neb.com/products/r0105-hpai"/>
-    <hyperlink ref="C206" r:id="rId175" display="https://international.neb.com/products/r0560-pmei"/>
-    <hyperlink ref="C207" r:id="rId176" display="https://international.neb.com/products/r0103-hincii"/>
-    <hyperlink ref="C208" r:id="rId177" display="https://international.neb.com/products/r0570-bsihkai"/>
-    <hyperlink ref="C209" r:id="rId178" display="https://international.neb.com/products/r0582-tspri"/>
-    <hyperlink ref="C211" r:id="rId179" display="https://international.neb.com/products/r0602-nspi"/>
-    <hyperlink ref="C212" r:id="rId180" display="https://international.neb.com/products/r0682-bsrfi-v2"/>
-    <hyperlink ref="C213" r:id="rId181" display="https://international.neb.com/products/r0523-bstyi"/>
-    <hyperlink ref="C214" r:id="rId182" display="https://international.neb.com/products/r0107-haeii"/>
-    <hyperlink ref="C215" r:id="rId183" display="https://international.neb.com/products/r0710-cviki-1"/>
-    <hyperlink ref="C216" r:id="rId184" display="https://international.neb.com/products/r0503-ecoo109i"/>
-    <hyperlink ref="C217" r:id="rId185" display="https://international.neb.com/products/r0506-ppumi"/>
-    <hyperlink ref="C218" r:id="rId186" display="https://international.neb.com/products/r0699-i-ceui"/>
-    <hyperlink ref="C219" r:id="rId187" display="https://international.neb.com/products/r0130-snabi"/>
-    <hyperlink ref="C220" r:id="rId188" display="https://international.neb.com/products/r0694-i-scei"/>
-    <hyperlink ref="C221" r:id="rId189" display="https://international.neb.com/products/r0517-bsphi"/>
-    <hyperlink ref="C222" r:id="rId190" display="https://international.neb.com/products/r0540-bspei"/>
-    <hyperlink ref="C223" r:id="rId191" display="https://international.neb.com/products/r0637-mmei"/>
-    <hyperlink ref="C224" r:id="rId192" display="https://international.neb.com/products/r0149-taqi-v2"/>
-    <hyperlink ref="C226" r:id="rId193" display="https://international.neb.com/products/r0617-hpy188i"/>
-    <hyperlink ref="C227" r:id="rId194" display="https://international.neb.com/products/r0622-hpy188iii"/>
-    <hyperlink ref="C228" r:id="rId195" display="https://international.neb.com/products/r0145-xbai"/>
-    <hyperlink ref="C230" r:id="rId196" display="https://international.neb.com/products/r0620-hpych4v"/>
-    <hyperlink ref="C231" r:id="rId197" display="https://international.neb.com/products/r0135-fspi"/>
-    <hyperlink ref="C232" r:id="rId198" display="https://international.neb.com/products/r0695-pi-pspi"/>
-    <hyperlink ref="C233" r:id="rId199" display="https://international.neb.com/products/r0534-msci"/>
-    <hyperlink ref="C235" r:id="rId200" display="https://international.neb.com/products/r0525-msei"/>
-    <hyperlink ref="C236" r:id="rId201" display="https://international.neb.com/products/r0547-paci"/>
-    <hyperlink ref="C237" r:id="rId202" display="https://international.neb.com/products/r0744-psii-v2"/>
-    <hyperlink ref="C238" r:id="rId203" display="https://international.neb.com/products/r0519-bstbi"/>
-    <hyperlink ref="C239" r:id="rId204" display="https://international.neb.com/products/r0129-drai"/>
-    <hyperlink ref="C240" r:id="rId205" display="https://international.neb.com/products/r0656-pspxi"/>
-    <hyperlink ref="C241" r:id="rId206" display="https://international.neb.com/products/r0567-bsawi"/>
-    <hyperlink ref="C242" r:id="rId207" display="https://international.neb.com/products/r0531-bsaai"/>
-    <hyperlink ref="C243" r:id="rId208" display="https://international.neb.com/products/r0508-eaei"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://international.neb.com/products/r0598-acli"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://international.neb.com/products/r0538-mluci"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://international.neb.com/products/r0655-pcii"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://international.neb.com/products/r3552-agei-hf"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://international.neb.com/products/r0605-sexai"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://international.neb.com/products/r0623-bceai"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://international.neb.com/products/r0619-hpych4iv"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://international.neb.com/products/r0618-hpych4iii"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://international.neb.com/products/r0613-baei"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://international.neb.com/products/r0609-bsaxi"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://international.neb.com/products/r0541-afliii"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://international.neb.com/products/r3133-spei-hf"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://international.neb.com/products/r0527-bsri"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://international.neb.com/products/r0600-bmri"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://international.neb.com/products/r0144-bglii"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://international.neb.com/products/r0652-afei"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://international.neb.com/products/r0137-alui"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://international.neb.com/products/r0187-stui"/>
+    <hyperlink ref="D24" r:id="rId19" display="https://international.neb.com/products/r3122-scai-hf"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://international.neb.com/products/r0696-pi-scei"/>
+    <hyperlink ref="D28" r:id="rId21" display="https://international.neb.com/products/r0526-asei"/>
+    <hyperlink ref="D29" r:id="rId22" display="https://international.neb.com/products/r0604-swai"/>
+    <hyperlink ref="D30" r:id="rId23" display="https://international.neb.com/products/r0645-cspci"/>
+    <hyperlink ref="D31" r:id="rId24" display="https://international.neb.com/products/r3589-mfei-hf"/>
+    <hyperlink ref="D32" r:id="rId25" display="https://international.neb.com/products/r0745-paqci"/>
+    <hyperlink ref="D33" r:id="rId26" display="https://international.neb.com/products/r0681-nbbsssi"/>
+    <hyperlink ref="D34" r:id="rId27" display="https://international.neb.com/products/r0680-bsssi-v2"/>
+    <hyperlink ref="D35" r:id="rId28" display="https://international.neb.com/products/r0628-bmgbi"/>
+    <hyperlink ref="D36" r:id="rId29" display="https://international.neb.com/products/r0532-pmli"/>
+    <hyperlink ref="D37" r:id="rId30" display="https://international.neb.com/products/r3510-draiii-hf"/>
+    <hyperlink ref="D38" r:id="rId31" display="https://international.neb.com/products/r0685-alei-v2"/>
+    <hyperlink ref="D39" r:id="rId32" display="https://international.neb.com/products/r0646-ecop15i"/>
+    <hyperlink ref="D41" r:id="rId33" display="https://international.neb.com/products/r0514-alwni"/>
+    <hyperlink ref="D42" r:id="rId34" display="https://international.neb.com/products/r0664-btsimuti"/>
+    <hyperlink ref="D43" r:id="rId35" display="https://international.neb.com/products/r0111-ndei"/>
+    <hyperlink ref="D44" r:id="rId36" display="https://international.neb.com/products/r0125-nlaiii"/>
+    <hyperlink ref="D45" r:id="rId37" display="https://international.neb.com/products/r0640-cviaii"/>
+    <hyperlink ref="D46" r:id="rId38" display="https://international.neb.com/products/r0650-fati"/>
+    <hyperlink ref="D47" r:id="rId39" display="https://international.neb.com/products/r0571-msli"/>
+    <hyperlink ref="D48" r:id="rId40" display="https://international.neb.com/products/r0662-fspei"/>
+    <hyperlink ref="D49" r:id="rId41" display="https://international.neb.com/products/r0533-xcmi"/>
+    <hyperlink ref="D50" r:id="rId42" display="https://international.neb.com/products/r0113-bstxi"/>
+    <hyperlink ref="D51" r:id="rId43" display="https://international.neb.com/products/r0509-pflmi"/>
+    <hyperlink ref="D52" r:id="rId44" display="https://international.neb.com/products/r0704-bcci"/>
+    <hyperlink ref="D54" r:id="rId45" display="https://international.neb.com/products/r0635-bseyi"/>
+    <hyperlink ref="D55" r:id="rId46" display="https://international.neb.com/products/r0651-faui"/>
+    <hyperlink ref="D57" r:id="rId47" display="https://international.neb.com/products/r0141-smai"/>
+    <hyperlink ref="D58" r:id="rId48" display="https://international.neb.com/products/r0626-ntcvipii"/>
+    <hyperlink ref="D59" r:id="rId49" display="https://international.neb.com/products/r0663-lpnpi"/>
+    <hyperlink ref="D60" r:id="rId50" display="https://international.neb.com/products/r0551-acii"/>
+    <hyperlink ref="D61" r:id="rId51" display="https://international.neb.com/products/r0157-sacii"/>
+    <hyperlink ref="D62" r:id="rId52" display="https://international.neb.com/products/r0102-bsrbi"/>
+    <hyperlink ref="D64" r:id="rId53" display="https://international.neb.com/products/r0638-styd4i"/>
+    <hyperlink ref="D65" r:id="rId54" display="https://international.neb.com/products/r0110-scrfi"/>
+    <hyperlink ref="D66" r:id="rId55" display="https://international.neb.com/products/r0536-bsaji"/>
+    <hyperlink ref="D67" r:id="rId56" display="https://international.neb.com/products/r0555-bsli"/>
+    <hyperlink ref="D68" r:id="rId57" display="https://international.neb.com/products/r0608-btgi"/>
+    <hyperlink ref="D69" r:id="rId58" display="https://international.neb.com/products/r0196-ncii"/>
+    <hyperlink ref="D70" r:id="rId59" display="https://international.neb.com/products/r0174-avrii"/>
+    <hyperlink ref="D71" r:id="rId60" display="https://international.neb.com/products/r0163-mnli"/>
+    <hyperlink ref="D72" r:id="rId61" display="https://international.neb.com/products/r0632-ntbbvci"/>
+    <hyperlink ref="D73" r:id="rId62" display="https://international.neb.com/products/r0601-bbvci"/>
+    <hyperlink ref="D74" r:id="rId63" display="https://international.neb.com/products/r0631-nbbbvci"/>
+    <hyperlink ref="D75" r:id="rId64" display="https://international.neb.com/products/r3642-sbfi-hf"/>
+    <hyperlink ref="D76" r:id="rId65" display="https://international.neb.com/products/r0649-bpu10i"/>
+    <hyperlink ref="D77" r:id="rId66" display="https://international.neb.com/products/r0524-bsu36i"/>
+    <hyperlink ref="D78" r:id="rId67" display="https://international.neb.com/products/r0521-econi"/>
+    <hyperlink ref="D79" r:id="rId68" display="https://international.neb.com/products/r0621-hpyav"/>
+    <hyperlink ref="D80" r:id="rId69" display="https://international.neb.com/products/r0611-pspgi"/>
+    <hyperlink ref="D81" r:id="rId70" display="https://international.neb.com/products/r0168-bstni"/>
+    <hyperlink ref="D82" r:id="rId71" display="https://international.neb.com/products/r3500-styi-hf"/>
+    <hyperlink ref="D83" r:id="rId72" display="https://international.neb.com/products/r0545-bcgi"/>
+    <hyperlink ref="D85" r:id="rId73" display="https://international.neb.com/products/r0518-bstui"/>
+    <hyperlink ref="D86" r:id="rId74" display="https://international.neb.com/products/r3505-eagi-hf"/>
+    <hyperlink ref="D87" r:id="rId75" display="https://international.neb.com/products/r0501-rsrii"/>
+    <hyperlink ref="D88" r:id="rId76" display="https://international.neb.com/products/r0554-bsiei"/>
+    <hyperlink ref="D90" r:id="rId77" display="https://international.neb.com/products/r0739-bsmbi-v2"/>
+    <hyperlink ref="D91" r:id="rId78" display="https://international.neb.com/products/r0734-esp3i"/>
+    <hyperlink ref="D92" r:id="rId79" display="https://international.neb.com/products/r0615-hpy99i"/>
+    <hyperlink ref="D93" r:id="rId80" display="https://international.neb.com/products/r0577-mspa1i"/>
+    <hyperlink ref="D94" r:id="rId81" display="https://international.neb.com/products/r0665-abasi"/>
+    <hyperlink ref="D95" r:id="rId82" display="https://international.neb.com/products/r0661-mspji"/>
+    <hyperlink ref="D96" r:id="rId83" display="https://international.neb.com/products/r0603-sgrai"/>
+    <hyperlink ref="D97" r:id="rId84" display="https://international.neb.com/products/r0568-bfai"/>
+    <hyperlink ref="D98" r:id="rId85" display="https://international.neb.com/products/r0624-bspcni"/>
+    <hyperlink ref="D100" r:id="rId86" display="https://international.neb.com/products/r0528-eari"/>
+    <hyperlink ref="D101" r:id="rId87" display="https://international.neb.com/products/r0641-acui"/>
+    <hyperlink ref="D103" r:id="rId88" display="https://international.neb.com/products/r0565-bpmi"/>
+    <hyperlink ref="D104" r:id="rId89" display="https://international.neb.com/products/r0175-ddel"/>
+    <hyperlink ref="D105" r:id="rId90" display="https://international.neb.com/products/r0561-sfci"/>
+    <hyperlink ref="D106" r:id="rId91" display="https://international.neb.com/products/r0520-aflii"/>
+    <hyperlink ref="D107" r:id="rId92" display="https://international.neb.com/products/r0633-bpuei"/>
+    <hyperlink ref="D108" r:id="rId93" display="https://international.neb.com/products/r0597-smli"/>
+    <hyperlink ref="D110" r:id="rId94" display="https://international.neb.com/products/r0148-mboii"/>
+    <hyperlink ref="D112" r:id="rId95" display="https://international.neb.com/products/r0194-xmni"/>
+    <hyperlink ref="D113" r:id="rId96" display="https://international.neb.com/products/r0134-bsmi"/>
+    <hyperlink ref="D114" r:id="rId97" display="https://international.neb.com/products/r0706-nbbsmi"/>
+    <hyperlink ref="D116" r:id="rId98" display="https://international.neb.com/products/r0154-hgai"/>
+    <hyperlink ref="D117" r:id="rId99" display="https://international.neb.com/products/r0659-zrai"/>
+    <hyperlink ref="D118" r:id="rId100" display="https://international.neb.com/products/r0117-aatii"/>
+    <hyperlink ref="D120" r:id="rId101" display="https://international.neb.com/products/r0593-pshai"/>
+    <hyperlink ref="D121" r:id="rId102" display="https://international.neb.com/products/r0584-ahdi"/>
+    <hyperlink ref="D122" r:id="rId103" display="https://international.neb.com/products/r0530-drdi"/>
+    <hyperlink ref="D123" r:id="rId104" display="https://international.neb.com/products/r0116-eco53ki"/>
+    <hyperlink ref="D124" r:id="rId105" display="https://international.neb.com/products/r3156-saci-hf"/>
+    <hyperlink ref="D125" r:id="rId106" display="https://international.neb.com/products/r0581-bseri"/>
+    <hyperlink ref="D126" r:id="rId107" display="https://international.neb.com/products/r0610-mlyi"/>
+    <hyperlink ref="D128" r:id="rId108" display="https://international.neb.com/products/r0515-plei"/>
+    <hyperlink ref="D129" r:id="rId109" display="https://international.neb.com/products/r0155-hinfi"/>
+    <hyperlink ref="D132" r:id="rId110" display="https://international.neb.com/products/r0176-dpni"/>
+    <hyperlink ref="D133" r:id="rId111" display="https://international.neb.com/products/r0537-bsabi"/>
+    <hyperlink ref="D134" r:id="rId112" display="https://international.neb.com/products/r0546-tfii"/>
+    <hyperlink ref="D135" r:id="rId113" display="https://international.neb.com/products/r0648-nbbsrdi"/>
+    <hyperlink ref="D136" r:id="rId114" display="https://international.neb.com/products/r0574-bsrdi"/>
+    <hyperlink ref="D137" r:id="rId115" display="https://international.neb.com/products/r0173-bbvi"/>
+    <hyperlink ref="D138" r:id="rId116" display="https://international.neb.com/products/r0667-btsi-v2"/>
+    <hyperlink ref="D139" r:id="rId117" display="https://international.neb.com/products/r0707-nbbtsi"/>
+    <hyperlink ref="D140" r:id="rId118" display="https://international.neb.com/products/r0654-bstapi"/>
+    <hyperlink ref="D141" r:id="rId119" display="https://international.neb.com/products/r0172-sfani"/>
+    <hyperlink ref="D143" r:id="rId120" display="https://international.neb.com/products/r0629-srfi"/>
+    <hyperlink ref="D144" r:id="rId121" display="https://international.neb.com/products/r0711-nmeaiii"/>
+    <hyperlink ref="D145" r:id="rId122" display="https://international.neb.com/products/r0190-naei"/>
+    <hyperlink ref="D146" r:id="rId123" display="https://international.neb.com/products/r0564-ngomiv"/>
+    <hyperlink ref="D147" r:id="rId124" display="https://international.neb.com/products/r0143-bgli"/>
+    <hyperlink ref="D148" r:id="rId125" display="https://international.neb.com/products/r0630-asisi"/>
+    <hyperlink ref="D149" r:id="rId126" display="https://international.neb.com/products/r0703-btgzi"/>
+    <hyperlink ref="D150" r:id="rId127" display="https://international.neb.com/products/r0139-hhai"/>
+    <hyperlink ref="D151" r:id="rId128" display="https://international.neb.com/products/r0124-hinp1i"/>
+    <hyperlink ref="D152" r:id="rId129" display="https://international.neb.com/products/r0199-bsshii"/>
+    <hyperlink ref="D154" r:id="rId130" display="https://international.neb.com/products/r0178-fnu4hi"/>
+    <hyperlink ref="D155" r:id="rId131" display="https://international.neb.com/products/r0579-cac8i"/>
+    <hyperlink ref="D156" r:id="rId132" display="https://international.neb.com/products/r0573-mwoi"/>
+    <hyperlink ref="D157" r:id="rId133" display="https://international.neb.com/products/r3131-nhei-hf"/>
+    <hyperlink ref="D160" r:id="rId134" display="https://international.neb.com/products/r0644-ntbspqi"/>
+    <hyperlink ref="D161" r:id="rId135" display="https://international.neb.com/products/r0585-blpi"/>
+    <hyperlink ref="D163" r:id="rId136" display="https://international.neb.com/products/r0120-bsp1286i"/>
+    <hyperlink ref="D164" r:id="rId137" display="https://international.neb.com/products/r0513-alwi"/>
+    <hyperlink ref="D165" r:id="rId138" display="https://international.neb.com/products/r0627-ntalwi"/>
+    <hyperlink ref="D167" r:id="rId139" display="https://international.neb.com/products/r0109-foki"/>
+    <hyperlink ref="D168" r:id="rId140" display="https://international.neb.com/products/r0647-btsci"/>
+    <hyperlink ref="D169" r:id="rId141" display="https://international.neb.com/products/r0108-haeiii"/>
+    <hyperlink ref="D170" r:id="rId142" display="https://international.neb.com/products/r0588-fsei"/>
+    <hyperlink ref="D171" r:id="rId143" display="https://international.neb.com/products/r0123-sfii"/>
+    <hyperlink ref="D172" r:id="rId144" display="https://international.neb.com/products/r0191-narl"/>
+    <hyperlink ref="D173" r:id="rId145" display="https://international.neb.com/products/r0606-sfoi"/>
+    <hyperlink ref="D174" r:id="rId146" display="https://international.neb.com/products/r0544-kasi"/>
+    <hyperlink ref="D175" r:id="rId147" display="https://international.neb.com/products/r0713-pluti"/>
+    <hyperlink ref="D176" r:id="rId148" display="https://international.neb.com/products/r0558-asci"/>
+    <hyperlink ref="D177" r:id="rId149" display="https://international.neb.com/products/r0590-ecii"/>
+    <hyperlink ref="D178" r:id="rId150" display="https://international.neb.com/products/r0572-bsmfi"/>
+    <hyperlink ref="D179" r:id="rId151" display="https://international.neb.com/products/r0653-pspomi"/>
+    <hyperlink ref="D180" r:id="rId152" display="https://international.neb.com/products/r0114-apai"/>
+    <hyperlink ref="D181" r:id="rId153" display="https://international.neb.com/products/r0165-sau96i"/>
+    <hyperlink ref="D182" r:id="rId154" display="https://international.neb.com/products/r0126-nlaiv"/>
+    <hyperlink ref="D183" r:id="rId155" display="https://international.neb.com/products/r3142-kpni-hf"/>
+    <hyperlink ref="D184" r:id="rId156" display="https://international.neb.com/products/r0599-acc65i"/>
+    <hyperlink ref="D185" r:id="rId157" display="https://international.neb.com/products/r3733-bsai-hf-v2"/>
+    <hyperlink ref="D186" r:id="rId158" display="https://international.neb.com/products/r0158-hphi"/>
+    <hyperlink ref="D188" r:id="rId159" display="https://international.neb.com/products/r0153-avaii"/>
+    <hyperlink ref="D189" r:id="rId160" display="https://international.neb.com/products/r0118-bani"/>
+    <hyperlink ref="D190" r:id="rId161" display="https://international.neb.com/products/r0708-baegi"/>
+    <hyperlink ref="D191" r:id="rId162" display="https://international.neb.com/products/r0556-bsahi"/>
+    <hyperlink ref="D192" r:id="rId163" display="https://international.neb.com/products/r0119-banii"/>
+    <hyperlink ref="D193" r:id="rId164" display="https://international.neb.com/products/r0167-rsai"/>
+    <hyperlink ref="D194" r:id="rId165" display="https://international.neb.com/products/r0639-cviqi"/>
+    <hyperlink ref="D195" r:id="rId166" display="https://international.neb.com/products/r3594-bstz17i-hf"/>
+    <hyperlink ref="D196" r:id="rId167" display="https://international.neb.com/products/r0596-bcivi"/>
+    <hyperlink ref="D199" r:id="rId168" display="https://international.neb.com/products/r0121-ntbsmai"/>
+    <hyperlink ref="D200" r:id="rId169" display="https://international.neb.com/products/r0507-apali"/>
+    <hyperlink ref="D201" r:id="rId170" display="https://international.neb.com/products/r0559-bsgi"/>
+    <hyperlink ref="D202" r:id="rId171" display="https://international.neb.com/products/r0161-acci"/>
+    <hyperlink ref="D203" r:id="rId172" display="https://international.neb.com/products/r0616-hpy166ii"/>
+    <hyperlink ref="D204" r:id="rId173" display="https://international.neb.com/products/r0583-tsp45i"/>
+    <hyperlink ref="D205" r:id="rId174" display="https://international.neb.com/products/r0105-hpai"/>
+    <hyperlink ref="D206" r:id="rId175" display="https://international.neb.com/products/r0560-pmei"/>
+    <hyperlink ref="D207" r:id="rId176" display="https://international.neb.com/products/r0103-hincii"/>
+    <hyperlink ref="D208" r:id="rId177" display="https://international.neb.com/products/r0570-bsihkai"/>
+    <hyperlink ref="D209" r:id="rId178" display="https://international.neb.com/products/r0582-tspri"/>
+    <hyperlink ref="D211" r:id="rId179" display="https://international.neb.com/products/r0602-nspi"/>
+    <hyperlink ref="D212" r:id="rId180" display="https://international.neb.com/products/r0682-bsrfi-v2"/>
+    <hyperlink ref="D213" r:id="rId181" display="https://international.neb.com/products/r0523-bstyi"/>
+    <hyperlink ref="D214" r:id="rId182" display="https://international.neb.com/products/r0107-haeii"/>
+    <hyperlink ref="D215" r:id="rId183" display="https://international.neb.com/products/r0710-cviki-1"/>
+    <hyperlink ref="D216" r:id="rId184" display="https://international.neb.com/products/r0503-ecoo109i"/>
+    <hyperlink ref="D217" r:id="rId185" display="https://international.neb.com/products/r0506-ppumi"/>
+    <hyperlink ref="D218" r:id="rId186" display="https://international.neb.com/products/r0699-i-ceui"/>
+    <hyperlink ref="D219" r:id="rId187" display="https://international.neb.com/products/r0130-snabi"/>
+    <hyperlink ref="D220" r:id="rId188" display="https://international.neb.com/products/r0694-i-scei"/>
+    <hyperlink ref="D221" r:id="rId189" display="https://international.neb.com/products/r0517-bsphi"/>
+    <hyperlink ref="D222" r:id="rId190" display="https://international.neb.com/products/r0540-bspei"/>
+    <hyperlink ref="D223" r:id="rId191" display="https://international.neb.com/products/r0637-mmei"/>
+    <hyperlink ref="D224" r:id="rId192" display="https://international.neb.com/products/r0149-taqi-v2"/>
+    <hyperlink ref="D226" r:id="rId193" display="https://international.neb.com/products/r0617-hpy188i"/>
+    <hyperlink ref="D227" r:id="rId194" display="https://international.neb.com/products/r0622-hpy188iii"/>
+    <hyperlink ref="D228" r:id="rId195" display="https://international.neb.com/products/r0145-xbai"/>
+    <hyperlink ref="D230" r:id="rId196" display="https://international.neb.com/products/r0620-hpych4v"/>
+    <hyperlink ref="D231" r:id="rId197" display="https://international.neb.com/products/r0135-fspi"/>
+    <hyperlink ref="D232" r:id="rId198" display="https://international.neb.com/products/r0695-pi-pspi"/>
+    <hyperlink ref="D233" r:id="rId199" display="https://international.neb.com/products/r0534-msci"/>
+    <hyperlink ref="D235" r:id="rId200" display="https://international.neb.com/products/r0525-msei"/>
+    <hyperlink ref="D236" r:id="rId201" display="https://international.neb.com/products/r0547-paci"/>
+    <hyperlink ref="D237" r:id="rId202" display="https://international.neb.com/products/r0744-psii-v2"/>
+    <hyperlink ref="D238" r:id="rId203" display="https://international.neb.com/products/r0519-bstbi"/>
+    <hyperlink ref="D239" r:id="rId204" display="https://international.neb.com/products/r0129-drai"/>
+    <hyperlink ref="D240" r:id="rId205" display="https://international.neb.com/products/r0656-pspxi"/>
+    <hyperlink ref="D241" r:id="rId206" display="https://international.neb.com/products/r0567-bsawi"/>
+    <hyperlink ref="D242" r:id="rId207" display="https://international.neb.com/products/r0531-bsaai"/>
+    <hyperlink ref="D243" r:id="rId208" display="https://international.neb.com/products/r0508-eaei"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId209"/>
